--- a/TEST_coral_cover.xlsx
+++ b/TEST_coral_cover.xlsx
@@ -19,14 +19,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="20">
   <si>
     <t>date</t>
   </si>
   <si>
-    <t>field_number</t>
-  </si>
-  <si>
     <t>points_coral</t>
   </si>
   <si>
@@ -61,6 +58,27 @@
   </si>
   <si>
     <t>**figure out how to calculate percent bleached of entire quadrat/transect</t>
+  </si>
+  <si>
+    <t>site</t>
+  </si>
+  <si>
+    <t>disease</t>
+  </si>
+  <si>
+    <t>percent_diseased</t>
+  </si>
+  <si>
+    <t>paling</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>white_plague</t>
+  </si>
+  <si>
+    <t>black_spot</t>
   </si>
 </sst>
 </file>
@@ -111,10 +129,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -446,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -457,26 +476,35 @@
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>5</v>
       </c>
       <c r="B2">
         <v>1091</v>
@@ -491,10 +519,19 @@
       <c r="E2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>1085</v>
@@ -509,10 +546,19 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>1092</v>
@@ -527,10 +573,19 @@
       <c r="E4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>1858</v>
@@ -545,10 +600,19 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>1878</v>
@@ -563,10 +627,19 @@
       <c r="E6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>1131</v>
@@ -580,10 +653,19 @@
       <c r="E7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8">
         <v>1580</v>
@@ -597,10 +679,19 @@
       <c r="E8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9">
         <v>1361</v>
@@ -614,10 +705,19 @@
       <c r="E9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10">
         <v>1087</v>
@@ -632,10 +732,19 @@
       <c r="E10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="2">
+        <v>2.7272727E-2</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11">
         <v>1228</v>
@@ -649,10 +758,19 @@
       <c r="E11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12">
         <v>1631</v>
@@ -667,10 +785,19 @@
       <c r="E12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13">
         <v>1303</v>
@@ -686,10 +813,19 @@
         <f>0.02/C13</f>
         <v>1.3333333333333333E-3</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14">
         <v>1727</v>
@@ -704,10 +840,19 @@
       <c r="E14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="F14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B15">
         <v>1081</v>
@@ -723,10 +868,19 @@
         <f>(0.98+0.8)/C15</f>
         <v>0.19777777777777777</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B16">
         <v>1076</v>
@@ -741,10 +895,19 @@
       <c r="E16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B17">
         <v>1599</v>
@@ -760,10 +923,19 @@
         <f>(0.05+0.05+0.05)/C17</f>
         <v>1.0000000000000002E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B18">
         <v>1304</v>
@@ -779,10 +951,19 @@
         <f>0.9/C18</f>
         <v>0.15</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0</v>
+      </c>
+      <c r="H18" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B19">
         <v>1305</v>
@@ -798,10 +979,19 @@
         <f>0.4/C19</f>
         <v>3.6363636363636369E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0</v>
+      </c>
+      <c r="H19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B20">
         <v>1802</v>
@@ -815,10 +1005,19 @@
       <c r="E20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="F20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B21">
         <v>1596</v>
@@ -834,10 +1033,19 @@
         <f>(1+0.9+1)/C21</f>
         <v>0.13181818181818181</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="F21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0</v>
+      </c>
+      <c r="H21" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B22">
         <v>1801</v>
@@ -853,10 +1061,19 @@
         <f>0.6/C22</f>
         <v>0.15</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B23">
         <v>1595</v>
@@ -872,10 +1089,19 @@
         <f>(0.2+0.2+0.1+0.98)/C23</f>
         <v>0.11384615384615385</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0</v>
+      </c>
+      <c r="H23" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B24">
         <v>1100</v>
@@ -891,10 +1117,19 @@
         <f>1/C24</f>
         <v>0.2</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="F24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0</v>
+      </c>
+      <c r="H24" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B25">
         <v>1669</v>
@@ -909,10 +1144,19 @@
       <c r="E25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="F25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" s="2">
+        <v>0</v>
+      </c>
+      <c r="H25" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B26">
         <v>1365</v>
@@ -928,10 +1172,19 @@
         <f>0.65/C26</f>
         <v>0.32500000000000001</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="F26" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" s="2">
+        <v>0</v>
+      </c>
+      <c r="H26" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B27" s="2">
         <v>1601</v>
@@ -946,10 +1199,19 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0</v>
+      </c>
+      <c r="H27" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B28">
         <v>1819</v>
@@ -964,10 +1226,19 @@
       <c r="E28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="F28" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28" s="2">
+        <v>0</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B29">
         <v>1864</v>
@@ -983,10 +1254,19 @@
         <f>0.2/C29</f>
         <v>0.05</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="F29" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" s="2">
+        <v>0</v>
+      </c>
+      <c r="H29" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B30">
         <v>1805</v>
@@ -1002,10 +1282,19 @@
         <f>(0.1+0.05+0.03+0.1)/C30</f>
         <v>5.6000000000000008E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="F30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G30" s="2">
+        <v>0</v>
+      </c>
+      <c r="H30" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B31">
         <v>1306</v>
@@ -1021,10 +1310,19 @@
         <f>(0.1+1)/C31</f>
         <v>0.27500000000000002</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="F31" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G31" s="2">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="H31" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B32">
         <v>1097</v>
@@ -1039,10 +1337,19 @@
       <c r="E32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="F32" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G32" s="2">
+        <v>3.8461540000000001E-3</v>
+      </c>
+      <c r="H32" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B33">
         <v>1098</v>
@@ -1057,10 +1364,19 @@
       <c r="E33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="F33" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G33" s="2">
+        <v>0</v>
+      </c>
+      <c r="H33" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B34">
         <v>1597</v>
@@ -1076,14 +1392,41 @@
         <f>(1+0.5+0.2)/C34</f>
         <v>5.6666666666666664E-2</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F34" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G34" s="2">
+        <v>6.6666700000000002E-4</v>
+      </c>
+      <c r="H34" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B38" t="s">
-        <v>13</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
